--- a/Section-4/datasetalquilereschamberi-kmeans.xlsx
+++ b/Section-4/datasetalquilereschamberi-kmeans.xlsx
@@ -470,7 +470,7 @@
         <v>2.3</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3.5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3.6</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3.5</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2.6</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2.3</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2.7</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3.7</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2.3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>3.3</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2.4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4.4</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2.9</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1.6</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2.5</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>3.1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4.1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1.6</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2.7</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2.5</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3.4</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3.4</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5.1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5.3</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2.3</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3.5</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3.3</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2.5</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3.5</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3.9</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2.7</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3.4</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2.5</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2.4</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2.4</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2.3</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3.5</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2.8</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1.8</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3.8</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3.2</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3.2</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3.4</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4.6</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4.1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1.9</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3.6</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3.7</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3.2</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1.6</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2.2</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2.4</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3.6</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3.3</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2.5</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2.2</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2.4</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3.2</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1.8</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2.7</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3.2</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3.8</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2.3</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3.4</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3.5</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3.7</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3.5</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3.2</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3.1</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3.8</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>4.4</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3.1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1.9</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2.6</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3.4</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2.4</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1.9</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2.4</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2.2</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2.4</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2.4</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
